--- a/trend_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
+++ b/trend_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.162784450568371</v>
+        <v>0.837215549431629</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.682145046874237</v>
+        <v>0.317854953125763</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.455483873621735</v>
+        <v>0.544516126378265</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.292791427375746</v>
+        <v>0.707208572624254</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.231216363225238</v>
+        <v>0.9721425422683569</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0076923076923076</v>
       </c>
       <c r="H28" t="n">
+        <v>0.538461538461538</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.34</v>
+        <v>1.1</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0293473810440361</v>
+        <v>0.0322659010600707</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.132072171456063</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0312004671641787</v>
+        <v>0.0584480188529414</v>
       </c>
       <c r="N28" t="n">
-        <v>-8.63158266001061</v>
+        <v>2.9332637327337</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.40324797025367</v>
+        <v>0.070308954031591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.819277108433735</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>99.41</v>
+        <v>9.914999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.23277464811366</v>
+        <v>-0.0324555707450446</v>
       </c>
       <c r="L29" t="n">
-        <v>-16.5589339210757</v>
+        <v>-0.0601713418366217</v>
       </c>
       <c r="M29" t="n">
-        <v>6.1525516528319</v>
+        <v>0.0016669326005692</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.24602620270965</v>
+        <v>-0.327338081140137</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.889664319040077</v>
+        <v>0.996696900698309</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.196531791907514</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.02</v>
+        <v>0.016</v>
       </c>
       <c r="K30" t="n">
-        <v>0.212839193151246</v>
+        <v>-0.0002608928571428</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.756023793066434</v>
+        <v>-0.0004539401288088</v>
       </c>
       <c r="M30" t="n">
-        <v>0.759230057764201</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.23982456476586</v>
+        <v>-1.63058035714286</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.560058179548968</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="H31" t="n">
+        <v>0.710982658959538</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.3985</v>
+        <v>340</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0144714006696428</v>
+        <v>-0.403145695364238</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0325445598627261</v>
+        <v>-6.00848602479844</v>
       </c>
       <c r="M31" t="n">
-        <v>0.000557609089008</v>
+        <v>7.08060982785999</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.63146817305969</v>
+        <v>-0.118572263342423</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.161618161662385</v>
+        <v>0.940997900379972</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.425925925925926</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>105.57</v>
+        <v>0.0116032852696493</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.23173622990079</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-3.91135182041543</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.774471366435869</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-2.11398714587552</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.762862824616335</v>
+        <v>0.193022908008221</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.164473684210526</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>4.977</v>
+        <v>0.007</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0477408236347359</v>
+        <v>2.28053196803197e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.178156202709462</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.24352681882049</v>
+        <v>0.0002972071910624</v>
       </c>
       <c r="N33" t="n">
-        <v>0.959228925753182</v>
+        <v>0.325790281147424</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3428,7 +3448,1075 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0813203591133575</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.858064516129032</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0127667274268218</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0036162842661878</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0304316260054954</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.36542539324297</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.595666308600271</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.005028249237091</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0099953805443931</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.518065438169628</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.942196531791908</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0002864144285434</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0129197041802752</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0146031183649158</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.0294665049941777</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.960172140889945</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.728323699421965</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0169930213464696</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0266874141748984</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0009166639363105</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.4160851122058</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999548206985067</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.358381502890173</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0006668188041989</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0010044336487403</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.0003998357963875</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.62638732731463</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.989717343992388</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.101899153898925</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.178467078951307</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0290792950400329</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.19610245471822</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0293473810440361</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.132072171456063</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0312004671641787</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-8.63158266001061</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>99.41</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-2.23277464811366</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-16.5589339210757</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.1525516528319</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-2.24602620270965</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.212839193151246</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.756023793066434</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.759230057764201</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.23982456476586</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3985</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0144714006696428</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0325445598627261</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.000557609089008</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-3.63146817305969</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.161618161662385</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>105.57</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-2.23173622990079</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-3.91135182041543</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.774471366435869</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-2.11398714587552</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Waikawa at Huritini</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.762862824616335</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.977</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0477408236347359</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.178156202709462</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.24352681882049</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.959228925753182</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1782982</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5493786</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
+++ b/trend_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.823065267624162</v>
+        <v>0.179397678943471</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.805555555555556</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.105</v>
+        <v>1.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0686499526963102</v>
+        <v>-0.153251748251748</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0565505389174743</v>
+        <v>-0.286807615389326</v>
       </c>
       <c r="M2" t="n">
-        <v>0.181411455325204</v>
+        <v>0.133925824316986</v>
       </c>
       <c r="N2" t="n">
-        <v>6.21266540238102</v>
+        <v>-13.3262389784129</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.837215549431629</v>
+        <v>0.283814249631668</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>9.9</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0677317994505489</v>
+        <v>-0.0520352237048665</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.056991705611125</v>
+        <v>-0.170826723328638</v>
       </c>
       <c r="M3" t="n">
-        <v>0.141263420479937</v>
+        <v>0.0753169932370838</v>
       </c>
       <c r="N3" t="n">
-        <v>0.684159590409585</v>
+        <v>-0.525608320251177</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,11 +751,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.284656491862147</v>
+        <v>0.0913589107113626</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0006363240418118</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0005997536945812</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0011484047346739</v>
+        <v>0.0013421580816573</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.24216027874565</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.009722540754413599</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.814814814814815</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="K5" t="n">
-        <v>57.1479591836735</v>
+        <v>1.24829118250171</v>
       </c>
       <c r="L5" t="n">
-        <v>18.4750911860794</v>
+        <v>-38.5974247160775</v>
       </c>
       <c r="M5" t="n">
-        <v>97.26499009608079</v>
+        <v>39.3800539083558</v>
       </c>
       <c r="N5" t="n">
-        <v>18.4348255431205</v>
+        <v>0.336466626011242</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.558187240537878</v>
+        <v>0.090386746728451</v>
       </c>
       <c r="G6" t="n">
-        <v>0.354166666666667</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.645833333333333</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0131347584143744</v>
+        <v>0.013363677343705</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.0008982724270359</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0010191112819883</v>
+        <v>-0.0003194046785576</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002460933460857</v>
+        <v>0.0022356071144894</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>6.72174584833897</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.797400075560519</v>
+        <v>0.940831310530744</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0185185185185185</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.314814814814815</v>
+        <v>0.296296296296296</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0.007</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0003302441229656</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0009845013477087999</v>
+        <v>-0.0010029798619262</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.71777318522346</v>
+        <v>-9.55651491365777</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.957609296985293</v>
+        <v>0.808652078333975</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.907407407407407</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>0.8835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0619760981912144</v>
+        <v>-0.0311937111801242</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.127214566517231</v>
+        <v>-0.08514056859381749</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0030933426086769</v>
+        <v>0.0315131484096015</v>
       </c>
       <c r="N8" t="n">
-        <v>-6.13624734566479</v>
+        <v>-3.53069736051208</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.317854953125763</v>
+        <v>0.164841406350269</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.75</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.31</v>
+        <v>7.29</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0137867988032911</v>
+        <v>-0.0249966191295797</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0565972584002709</v>
+        <v>-0.0630487896070285</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0237703893788096</v>
+        <v>0.0143895513679153</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.188601898813832</v>
+        <v>-0.342889151297389</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.954825379084701</v>
+        <v>0.76764687891775</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.981481481481482</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.045</v>
+        <v>0.928</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.061010579064588</v>
+        <v>-0.0269466800804829</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.131199034249449</v>
+        <v>-0.0834879212888061</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0046408407871256</v>
+        <v>0.0333382680759579</v>
       </c>
       <c r="N10" t="n">
-        <v>-5.83833292484095</v>
+        <v>-2.90373707763824</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.869731879439762</v>
+        <v>0.605909786190418</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0188679245283019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.30188679245283</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.258335084033613</v>
+        <v>-0.0073441689008042</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.08705357142857</v>
+        <v>-0.06335609971630821</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0445602441483915</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.45837710084034</v>
+        <v>-0.6863709253088101</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.947313243523352</v>
+        <v>0.008946133806509601</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.851851851851852</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.15</v>
+        <v>0.036</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0613865546218488</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.133066391145201</v>
+        <v>0.000499121169926</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="N12" t="n">
-        <v>-5.33796127146511</v>
+        <v>5.5746336996337</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.640029846384364</v>
+        <v>0.0376531263759799</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.574074074074074</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0365</v>
+        <v>3.625</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0003836659663865</v>
+        <v>0.18974025974026</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.002484693877551</v>
+        <v>0.009847966912899899</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0017215400230523</v>
+        <v>0.373435020168113</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.05113963393576</v>
+        <v>5.23421406180027</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.804558693360945</v>
+        <v>0.000816749640631</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="H14" t="n">
-        <v>0.944444444444444</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.755</v>
+        <v>1.2</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.178069727891157</v>
+        <v>-0.13395897206242</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.513097363350572</v>
+        <v>-0.215647766737604</v>
       </c>
       <c r="M14" t="n">
-        <v>0.144344056616649</v>
+        <v>-0.0597955076884219</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.74220313957807</v>
+        <v>-11.1632476718684</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.001362181775425</v>
+        <v>0.368641365418722</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0121951219512195</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.670731707317073</v>
+        <v>0.876106194690266</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.2</v>
+        <v>9.9</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.113431677018634</v>
+        <v>-0.010028830313015</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.191746632896293</v>
+        <v>-0.0431677692578945</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0468087875908415</v>
+        <v>0.0281627199995607</v>
       </c>
       <c r="N15" t="n">
-        <v>-9.4526397515528</v>
+        <v>-0.10130131629308</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.544516126378265</v>
+        <v>0.0098423734572576</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8672566371681421</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.91</v>
+        <v>0.015</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0016662864963503</v>
+        <v>0.0003636137381781</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0409363808666331</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0415533852151068</v>
+        <v>0.0006148195599018</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0168141926977833</v>
+        <v>2.42409158785465</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0569211820062392</v>
+        <v>0.166152076223456</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.219298245614035</v>
+        <v>0.745614035087719</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.015</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002201627486437</v>
+        <v>5.99753694581281</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-2.56402957858467</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0004993164730006</v>
+        <v>18.0812226823131</v>
       </c>
       <c r="N17" t="n">
-        <v>1.46775165762508</v>
+        <v>1.76398145465083</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0005199444313727</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.448598130841121</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.523364485981308</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.195257128133449</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>0.0112736917463692</v>
       </c>
       <c r="K18" t="n">
-        <v>4.99316473000684</v>
+        <v>3.994708781147e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.00161927032411</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>17.5879597593467</v>
+        <v>0.0008686057279813</v>
       </c>
       <c r="N18" t="n">
-        <v>1.46857786176672</v>
+        <v>0.354339010771121</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0038189547902293</v>
+        <v>0.9993707638310591</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="H19" t="n">
-        <v>0.471698113207547</v>
+        <v>0.192982456140351</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007853924848766399</v>
+        <v>0.007</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0003998357963875</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0006578318125814</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0002334455884904</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-5.71193994839315</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.984727260480454</v>
+        <v>0.966079985490596</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0263157894736842</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.192982456140351</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007</v>
+        <v>0.94975</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0002859099804305</v>
+        <v>-0.0198307084309133</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0005017170329669999</v>
+        <v>-0.0382885845364535</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-0.0037834813357112</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.08442829186469</v>
+        <v>-2.08799246442889</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.391014082272733</v>
+        <v>0.138170114937376</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.885964912280702</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.974</v>
+        <v>7.31</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0033234758871701</v>
+        <v>-0.0074540816326535</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0150299115914654</v>
+        <v>-0.0195432407306437</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0241746391943835</v>
+        <v>0.00320180218027</v>
       </c>
       <c r="N21" t="n">
-        <v>0.341219290263877</v>
+        <v>-0.101971020966533</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.707208572624254</v>
+        <v>0.954206384873667</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.527272727272727</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.31</v>
+        <v>0.9881</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0034328007518799</v>
+        <v>-0.0192948098663926</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.007868979502585201</v>
+        <v>-0.0391119858607503</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0161233897928683</v>
+        <v>-0.0016564027925917</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0469603386030086</v>
+        <v>-1.95271833482366</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3391234104652</v>
+        <v>0.978335018231442</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.956140350877193</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.009</v>
+        <v>1.14</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0033447802197802</v>
+        <v>-0.027403134635149</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.014201097004512</v>
+        <v>-0.04694527842282</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0255480360328514</v>
+        <v>-0.0048692592765235</v>
       </c>
       <c r="N23" t="n">
-        <v>0.331494570840458</v>
+        <v>-2.40378373992535</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.907757701539631</v>
+        <v>0.925719112554066</v>
       </c>
       <c r="G24" t="n">
-        <v>0.018018018018018</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.234234234234234</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>0.0395</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.131764069264069</v>
+        <v>-0.0005702576112412</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.374954459300594</v>
+        <v>-0.0011669329073482</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-2.19606782106782</v>
+        <v>-1.44369015504106</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.565923955128541</v>
+        <v>0.99537357719068</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.815789473684211</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.159</v>
+        <v>4.365</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0033024412296564</v>
+        <v>-0.200174857030724</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0238584894219885</v>
+        <v>-0.336635944700461</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0168709431669395</v>
+        <v>-0.07214920353721301</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.284938846389683</v>
+        <v>-4.58590737756528</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.671857606758492</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0081967213114754</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.557377049180328</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.756578633323193</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.394736842105263</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
-        <v>0.0385</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.000332347588717</v>
+        <v>0.0059025533290239</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0009970427661509999</v>
+        <v>-0.0174833680235554</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0004982073295877</v>
+        <v>0.0405434672102385</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.863240490174067</v>
+        <v>0.536595757183993</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.866271244347211</v>
+        <v>0.348189748116481</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.883928571428571</v>
+        <v>0.822485207100592</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.35</v>
+        <v>9.84</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.07482726736179419</v>
+        <v>-0.010002282062985</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.214005968104975</v>
+        <v>-0.0381144195387168</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0375091627797563</v>
+        <v>0.0202668363756367</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.72016706578837</v>
+        <v>-0.101649207957165</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9721425422683569</v>
+        <v>0.982939145832619</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0076923076923076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.538461538461538</v>
+        <v>0.184971098265896</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>0.016</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0322659010600707</v>
+        <v>-0.0001804372677672</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-0.0003388218923933</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0584480188529414</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.9332637327337</v>
+        <v>-1.12773292354536</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.070308954031591</v>
+        <v>0.309020647976264</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.819277108433735</v>
+        <v>0.705202312138728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.914999999999999</v>
+        <v>331</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0324555707450446</v>
+        <v>2.00686813186813</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0601713418366217</v>
+        <v>-3.89703008327114</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0016669326005692</v>
+        <v>8.93689784959466</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.327338081140137</v>
+        <v>0.606304571561369</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.996696900698309</v>
+        <v>0.761401690005615</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.411042944785276</v>
       </c>
       <c r="H30" t="n">
-        <v>0.196531791907514</v>
+        <v>0.570552147239264</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.016</v>
+        <v>0.0120680775224722</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0002608928571428</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0004539401288088</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.63058035714286</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.560058179548968</v>
+        <v>0.421577710339085</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0057803468208092</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="H31" t="n">
-        <v>0.710982658959538</v>
+        <v>0.152439024390244</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>340</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.403145695364238</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-6.00848602479844</v>
+        <v>-0.0001667047010497</v>
       </c>
       <c r="M31" t="n">
-        <v>7.08060982785999</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.118572263342423</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.940997900379972</v>
+        <v>0.295246082374088</v>
       </c>
       <c r="G32" t="n">
-        <v>0.425925925925926</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.555555555555556</v>
+        <v>0.8536585365853659</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0116032852696493</v>
+        <v>0.9275</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0033341280534751</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0084242202550189</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0190523365086419</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.359474722746651</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.193022908008221</v>
+        <v>0.411453852552807</v>
       </c>
       <c r="G33" t="n">
-        <v>0.105263157894737</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.164473684210526</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007</v>
+        <v>7.31</v>
       </c>
       <c r="K33" t="n">
-        <v>2.28053196803197e-05</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.008372226021147299</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002972071910624</v>
+        <v>0.0054155179617372</v>
       </c>
       <c r="N33" t="n">
-        <v>0.325790281147424</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0813203591133575</v>
+        <v>0.330733503398069</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.858064516129032</v>
+        <v>0.953757225433526</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0127667274268218</v>
+        <v>0.0032455570745044</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0036162842661878</v>
+        <v>-0.008172256831498</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0304316260054954</v>
+        <v>0.0165047795992356</v>
       </c>
       <c r="N34" t="n">
-        <v>1.36542539324297</v>
+        <v>0.345272029202598</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3560,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.595666308600271</v>
+        <v>0.930659195757828</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.466666666666667</v>
+        <v>0.716763005780347</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.31</v>
+        <v>1.121</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0128408203125</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.005028249237091</v>
+        <v>-0.0217972062685762</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0099953805443931</v>
+        <v>0.0007680994206207</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.14547906445138</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.518065438169628</v>
+        <v>0.99871769853618</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.942196531791908</v>
+        <v>0.346820809248555</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.972</v>
+        <v>0.041</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0002864144285434</v>
+        <v>-0.0006668188041989</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0129197041802752</v>
+        <v>-0.0010079485456404</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0146031183649158</v>
+        <v>-0.0003325551285251</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.0294665049941777</v>
+        <v>-1.62638732731463</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.960172140889945</v>
+        <v>0.995228111534557</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.728323699421965</v>
+        <v>0.871345029239766</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.2</v>
+        <v>4.59</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0169930213464696</v>
+        <v>-0.107725375626043</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0266874141748984</v>
+        <v>-0.183014292374469</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0009166639363105</v>
+        <v>-0.0410722089307373</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.4160851122058</v>
+        <v>-2.34695807464147</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.999548206985067</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.358381502890173</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.041</v>
+        <v>0.263</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0006668188041989</v>
+        <v>-0.06870769692123151</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0010044336487403</v>
+        <v>-0.116697302980198</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0003998357963875</v>
+        <v>0.0041703037026152</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.62638732731463</v>
+        <v>-26.1245995898219</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3899,7 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3909,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.989717343992388</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.859649122807018</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.64</v>
+        <v>98</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.101899153898925</v>
+        <v>-5.66449675905743</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.178467078951307</v>
+        <v>-16.5589339210757</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0290792950400329</v>
+        <v>1.0319140906162</v>
       </c>
       <c r="N39" t="n">
-        <v>-2.19610245471822</v>
+        <v>-5.78009873373207</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3986,7 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,7 +3996,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.231216363225238</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.34</v>
+        <v>5.02</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0293473810440361</v>
+        <v>-0.5578282483029851</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.132072171456063</v>
+        <v>-1.79171140082744</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0312004671641787</v>
+        <v>0.163647529678681</v>
       </c>
       <c r="N40" t="n">
-        <v>-8.63158266001061</v>
+        <v>-11.1121165000595</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4091,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4106,7 +4098,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.40324797025367</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4118,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>99.41</v>
+        <v>0.363</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.23277464811366</v>
+        <v>-0.0155713623725672</v>
       </c>
       <c r="L41" t="n">
-        <v>-16.5589339210757</v>
+        <v>-0.0425916756731881</v>
       </c>
       <c r="M41" t="n">
-        <v>6.1525516528319</v>
+        <v>0.0017635427212339</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.24602620270965</v>
+        <v>-4.28963150759427</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4139,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4178,11 +4170,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4193,31 +4185,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.889664319040077</v>
+        <v>0.20948086257967</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.02</v>
+        <v>101.705</v>
       </c>
       <c r="K42" t="n">
-        <v>0.212839193151246</v>
+        <v>-2.22260645604396</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.756023793066434</v>
+        <v>-2.94108718459235</v>
       </c>
       <c r="M42" t="n">
-        <v>0.759230057764201</v>
+        <v>0.774471366435869</v>
       </c>
       <c r="N42" t="n">
-        <v>4.23982456476586</v>
+        <v>-2.18534630160165</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4226,7 +4218,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4272,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3985</v>
+        <v>4.802</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0144714006696428</v>
+        <v>0.0410393258426966</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0325445598627261</v>
+        <v>-0.252619379226491</v>
       </c>
       <c r="M43" t="n">
-        <v>0.000557609089008</v>
+        <v>0.24352681882049</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.63146817305969</v>
+        <v>0.8546298592814791</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4305,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4343,180 +4335,6 @@
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Waikawa at Huritini</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.161618161662385</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>105.57</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-2.23173622990079</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-3.91135182041543</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.774471366435869</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.11398714587552</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1782982</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5493786</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Waikawa</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>West_9a</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Waikawa at Huritini</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.762862824616335</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.977</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.0477408236347359</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.178156202709462</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.24352681882049</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.959228925753182</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1782982</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5493786</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Waikawa</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>West_9a</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
+++ b/trend_results/Rivers/WaikawaatHuritini_b841af54ad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -139,46 +139,52 @@
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,31 +663,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.179397678943471</v>
+        <v>0.13838914079761</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.925925925925926</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>-0.153251748251748</v>
+        <v>-0.164248073308271</v>
       </c>
       <c r="L2">
-        <v>-0.286807615389326</v>
+        <v>-0.311517844078943</v>
       </c>
       <c r="M2">
-        <v>0.133925824316986</v>
+        <v>0.107245193224433</v>
       </c>
       <c r="N2">
-        <v>-13.3262389784129</v>
+        <v>-16.4248073308271</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -696,19 +702,19 @@
         <v>5493786</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,31 +734,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.283814249631668</v>
+        <v>0.595511852711883</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.905660377358491</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.9</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="K3">
-        <v>-0.0520352237048665</v>
+        <v>0.0403963133640556</v>
       </c>
       <c r="L3">
-        <v>-0.170826723328638</v>
+        <v>-0.101618717923492</v>
       </c>
       <c r="M3">
-        <v>0.0753169932370838</v>
+        <v>0.137576788112418</v>
       </c>
       <c r="N3">
-        <v>-0.525608320251177</v>
+        <v>0.409283823344029</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -767,19 +773,19 @@
         <v>5493786</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,13 +805,13 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.0913589107113626</v>
+        <v>0.0123490005294815</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.351851851851852</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -814,16 +820,16 @@
         <v>0.015</v>
       </c>
       <c r="K4">
-        <v>0.0006363240418118</v>
+        <v>0.0009429862306368</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0002318553857738</v>
       </c>
       <c r="M4">
-        <v>0.0013421580816573</v>
+        <v>0.0017107728337236</v>
       </c>
       <c r="N4">
-        <v>4.24216027874565</v>
+        <v>6.28657487091222</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -838,19 +844,19 @@
         <v>5493786</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,31 +876,31 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.685072730478399</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.888888888888889</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>371</v>
+        <v>371.2</v>
       </c>
       <c r="K5">
-        <v>1.24829118250171</v>
+        <v>-6.28818681318682</v>
       </c>
       <c r="L5">
-        <v>-38.5974247160775</v>
+        <v>-44.7880625466251</v>
       </c>
       <c r="M5">
-        <v>39.3800539083558</v>
+        <v>41.5009107043762</v>
       </c>
       <c r="N5">
-        <v>0.336466626011242</v>
+        <v>-1.69401584406972</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -909,19 +915,19 @@
         <v>5493786</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,40 +944,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.090386746728451</v>
+        <v>0.15906624098512</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H6">
+        <v>0.686274509803922</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>0.013363677343705</v>
+        <v>0.0146018029479686</v>
       </c>
       <c r="K6">
-        <v>0.0008982724270359</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0003194046785576</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0022356071144894</v>
+        <v>0.0017205714058269</v>
       </c>
       <c r="N6">
-        <v>6.72174584833897</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1782982</v>
@@ -980,19 +986,19 @@
         <v>5493786</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,31 +1018,31 @@
         <v>39</v>
       </c>
       <c r="F7">
-        <v>0.940831310530744</v>
+        <v>0.997625221843927</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H7">
         <v>0.296296296296296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.007</v>
+        <v>0.0055</v>
       </c>
       <c r="K7">
-        <v>-0.000668956043956</v>
+        <v>-0.0010020576131687</v>
       </c>
       <c r="L7">
-        <v>-0.0010029798619262</v>
+        <v>-0.0014908163265306</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="N7">
-        <v>-9.55651491365777</v>
+        <v>-18.2192293303404</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -1051,19 +1057,19 @@
         <v>5493786</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,31 +1089,31 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.808652078333975</v>
+        <v>0.967318738514765</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.944444444444444</v>
+        <v>0.981481481481482</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8835</v>
+        <v>0.8325</v>
       </c>
       <c r="K8">
-        <v>-0.0311937111801242</v>
+        <v>-0.0726675392670157</v>
       </c>
       <c r="L8">
-        <v>-0.08514056859381749</v>
+        <v>-0.126359060949057</v>
       </c>
       <c r="M8">
-        <v>0.0315131484096015</v>
+        <v>-0.0064431655727459</v>
       </c>
       <c r="N8">
-        <v>-3.53069736051208</v>
+        <v>-8.72883354558747</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
@@ -1122,19 +1128,19 @@
         <v>5493786</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,13 +1160,13 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.164841406350269</v>
+        <v>0.68565352817212</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.716981132075472</v>
+        <v>0.679245283018868</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1169,22 +1175,22 @@
         <v>7.29</v>
       </c>
       <c r="K9">
-        <v>-0.0249966191295797</v>
+        <v>0.0091810592658116</v>
       </c>
       <c r="L9">
-        <v>-0.0630487896070285</v>
+        <v>-0.0260476464843899</v>
       </c>
       <c r="M9">
-        <v>0.0143895513679153</v>
+        <v>0.0480496619275325</v>
       </c>
       <c r="N9">
-        <v>-0.342889151297389</v>
+        <v>0.125940456321147</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1782982</v>
@@ -1193,16 +1199,16 @@
         <v>5493786</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,31 +1228,31 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.76764687891775</v>
+        <v>0.954116028927352</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.928</v>
+        <v>0.8675</v>
       </c>
       <c r="K10">
-        <v>-0.0269466800804829</v>
+        <v>-0.0721292016806723</v>
       </c>
       <c r="L10">
-        <v>-0.0834879212888061</v>
+        <v>-0.127655614555009</v>
       </c>
       <c r="M10">
-        <v>0.0333382680759579</v>
+        <v>-0.0036032820439796</v>
       </c>
       <c r="N10">
-        <v>-2.90373707763824</v>
+        <v>-8.314605381057319</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
@@ -1261,19 +1267,19 @@
         <v>5493786</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,31 +1299,31 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.605909786190418</v>
+        <v>0.885241518995983</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.814814814814815</v>
+        <v>0.7962962962962959</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.07</v>
+        <v>1.035</v>
       </c>
       <c r="K11">
-        <v>-0.0073441689008042</v>
+        <v>-0.0501717032967033</v>
       </c>
       <c r="L11">
-        <v>-0.06335609971630821</v>
+        <v>-0.111148304873427</v>
       </c>
       <c r="M11">
-        <v>0.0445602441483915</v>
+        <v>0.0131760455667674</v>
       </c>
       <c r="N11">
-        <v>-0.6863709253088101</v>
+        <v>-4.84750756489887</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
@@ -1332,19 +1338,19 @@
         <v>5493786</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,37 +1370,37 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.008946133806509601</v>
+        <v>0.09791505961498299</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.574074074074074</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.036</v>
+        <v>0.0365</v>
       </c>
       <c r="K12">
-        <v>0.0020068681318681</v>
+        <v>0.001329390354868</v>
       </c>
       <c r="L12">
-        <v>0.000499121169926</v>
+        <v>-0.0002504658543259</v>
       </c>
       <c r="M12">
-        <v>0.0040137362637362</v>
+        <v>0.003176396250218</v>
       </c>
       <c r="N12">
-        <v>5.5746336996337</v>
+        <v>3.64216535580291</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1782982</v>
@@ -1403,19 +1409,19 @@
         <v>5493786</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,43 +1435,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.0376531263759799</v>
+        <v>0.873163478329909</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.962962962962963</v>
+        <v>0.981481481481482</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.625</v>
+        <v>3.485</v>
       </c>
       <c r="K13">
-        <v>0.18974025974026</v>
+        <v>-0.177751177394035</v>
       </c>
       <c r="L13">
-        <v>0.009847966912899899</v>
+        <v>-0.41872734054827</v>
       </c>
       <c r="M13">
-        <v>0.373435020168113</v>
+        <v>0.0947918253403449</v>
       </c>
       <c r="N13">
-        <v>5.23421406180027</v>
+        <v>-5.10046420068966</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1782982</v>
@@ -1474,19 +1480,19 @@
         <v>5493786</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1512,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.000816749640631</v>
+        <v>0.0049058876186649</v>
       </c>
       <c r="G14">
-        <v>0.0136986301369863</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.684931506849315</v>
+        <v>0.716417910447761</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K14">
-        <v>-0.13395897206242</v>
+        <v>-0.110821744627054</v>
       </c>
       <c r="L14">
-        <v>-0.215647766737604</v>
+        <v>-0.176907117325844</v>
       </c>
       <c r="M14">
-        <v>-0.0597955076884219</v>
+        <v>-0.0345749491944148</v>
       </c>
       <c r="N14">
-        <v>-11.1632476718684</v>
+        <v>-10.0747040570049</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1782982</v>
@@ -1545,19 +1551,19 @@
         <v>5493786</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,13 +1583,13 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.368641365418722</v>
+        <v>0.774895401397511</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.876106194690266</v>
+        <v>0.858407079646018</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1592,22 +1598,22 @@
         <v>9.9</v>
       </c>
       <c r="K15">
-        <v>-0.010028830313015</v>
+        <v>0.0132939035486803</v>
       </c>
       <c r="L15">
-        <v>-0.0431677692578945</v>
+        <v>-0.0295233167200112</v>
       </c>
       <c r="M15">
-        <v>0.0281627199995607</v>
+        <v>0.0458924851882947</v>
       </c>
       <c r="N15">
-        <v>-0.10130131629308</v>
+        <v>0.134281854027074</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1782982</v>
@@ -1616,19 +1622,19 @@
         <v>5493786</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,7 +1654,7 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.0098423734572576</v>
+        <v>0.0366239657725421</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1663,22 +1669,22 @@
         <v>0.015</v>
       </c>
       <c r="K16">
-        <v>0.0003636137381781</v>
+        <v>0.0002622038765254</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0006148195599018</v>
+        <v>0.0005610599078341</v>
       </c>
       <c r="N16">
-        <v>2.42409158785465</v>
+        <v>1.74802584350323</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q16">
         <v>1782982</v>
@@ -1687,19 +1693,19 @@
         <v>5493786</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,37 +1725,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.166152076223456</v>
+        <v>0.423128406398624</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.745614035087719</v>
+        <v>0.763157894736842</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K17">
-        <v>5.99753694581281</v>
+        <v>1.33791208791209</v>
       </c>
       <c r="L17">
-        <v>-2.56402957858467</v>
+        <v>-6.65509057553187</v>
       </c>
       <c r="M17">
-        <v>18.0812226823131</v>
+        <v>16.4360758751672</v>
       </c>
       <c r="N17">
-        <v>1.76398145465083</v>
+        <v>0.38780060519191</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>1782982</v>
@@ -1758,19 +1764,19 @@
         <v>5493786</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,37 +1796,37 @@
         <v>39</v>
       </c>
       <c r="F18">
-        <v>0.0005199444313727</v>
+        <v>0.0013025666131466</v>
       </c>
       <c r="G18">
-        <v>0.448598130841121</v>
+        <v>0.424528301886792</v>
       </c>
       <c r="H18">
-        <v>0.523364485981308</v>
+        <v>0.556603773584906</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0112736917463692</v>
+        <v>0.0129805974460226</v>
       </c>
       <c r="K18">
-        <v>3.994708781147E-05</v>
+        <v>9.32024364196162E-05</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0008686057279813</v>
+        <v>0.0009064908894691</v>
       </c>
       <c r="N18">
-        <v>0.354339010771121</v>
+        <v>0.718013456677792</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q18">
         <v>1782982</v>
@@ -1829,19 +1835,19 @@
         <v>5493786</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,37 +1867,37 @@
         <v>39</v>
       </c>
       <c r="F19">
-        <v>0.9993707638310591</v>
+        <v>0.999898494652545</v>
       </c>
       <c r="G19">
-        <v>0.0263157894736842</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="H19">
-        <v>0.192982456140351</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.007</v>
+        <v>0.0065</v>
       </c>
       <c r="K19">
-        <v>-0.0003998357963875</v>
+        <v>-0.0004922506738544</v>
       </c>
       <c r="L19">
-        <v>-0.0006578318125814</v>
+        <v>-0.000664695177434</v>
       </c>
       <c r="M19">
-        <v>-0.0001999178981937</v>
+        <v>-0.0002002118421302</v>
       </c>
       <c r="N19">
-        <v>-5.71193994839315</v>
+        <v>-7.57308729006842</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1782982</v>
@@ -1900,19 +1906,19 @@
         <v>5493786</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,7 +1938,7 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.966079985490596</v>
+        <v>0.996650358304951</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1944,25 +1950,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.94975</v>
+        <v>0.928</v>
       </c>
       <c r="K20">
-        <v>-0.0198307084309133</v>
+        <v>-0.0260518369788107</v>
       </c>
       <c r="L20">
-        <v>-0.0382885845364535</v>
+        <v>-0.0457572411711156</v>
       </c>
       <c r="M20">
-        <v>-0.0037834813357112</v>
+        <v>-0.0098089475884519</v>
       </c>
       <c r="N20">
-        <v>-2.08799246442889</v>
+        <v>-2.80731001926839</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1782982</v>
@@ -1971,19 +1977,19 @@
         <v>5493786</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,37 +2009,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.138170114937376</v>
+        <v>0.263349944880232</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.540540540540541</v>
+        <v>0.563636363636364</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.31</v>
+        <v>7.315</v>
       </c>
       <c r="K21">
-        <v>-0.0074540816326535</v>
+        <v>-0.0046175726927938</v>
       </c>
       <c r="L21">
-        <v>-0.0195432407306437</v>
+        <v>-0.0180542113709225</v>
       </c>
       <c r="M21">
-        <v>0.00320180218027</v>
+        <v>0.0069324252781849</v>
       </c>
       <c r="N21">
-        <v>-0.101971020966533</v>
+        <v>-0.0631247121366211</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q21">
         <v>1782982</v>
@@ -2042,16 +2048,16 @@
         <v>5493786</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2077,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.954206384873667</v>
+        <v>0.993081802112375</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.956140350877193</v>
+        <v>0.93859649122807</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9881</v>
+        <v>0.9505</v>
       </c>
       <c r="K22">
-        <v>-0.0192948098663926</v>
+        <v>-0.0269630895420369</v>
       </c>
       <c r="L22">
-        <v>-0.0391119858607503</v>
+        <v>-0.0452732088981208</v>
       </c>
       <c r="M22">
-        <v>-0.0016564027925917</v>
+        <v>-0.008038040312624299</v>
       </c>
       <c r="N22">
-        <v>-1.95271833482366</v>
+        <v>-2.83672693761566</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1782982</v>
@@ -2110,19 +2116,19 @@
         <v>5493786</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,37 +2148,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.978335018231442</v>
+        <v>0.991372893400526</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.771929824561403</v>
+        <v>0.728070175438597</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="K23">
-        <v>-0.027403134635149</v>
+        <v>-0.0339860426929392</v>
       </c>
       <c r="L23">
-        <v>-0.04694527842282</v>
+        <v>-0.0501717032967031</v>
       </c>
       <c r="M23">
-        <v>-0.0048692592765235</v>
+        <v>-0.0122103832440673</v>
       </c>
       <c r="N23">
-        <v>-2.40378373992535</v>
+        <v>-3.03446809758386</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>1782982</v>
@@ -2181,19 +2187,19 @@
         <v>5493786</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,37 +2219,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.925719112554066</v>
+        <v>0.841127118537791</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.421052631578947</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0395</v>
+        <v>0.039</v>
       </c>
       <c r="K24">
-        <v>-0.0005702576112412</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="L24">
-        <v>-0.0011669329073482</v>
+        <v>-0.0009980422287068</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0003430318518611</v>
       </c>
       <c r="N24">
-        <v>-1.44369015504106</v>
+        <v>-1.2742019884877</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1782982</v>
@@ -2252,19 +2258,19 @@
         <v>5493786</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,37 +2290,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.99537357719068</v>
+        <v>0.999488280824082</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.910714285714286</v>
+        <v>0.919642857142857</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.365</v>
+        <v>3.885</v>
       </c>
       <c r="K25">
-        <v>-0.200174857030724</v>
+        <v>-0.232476047260446</v>
       </c>
       <c r="L25">
-        <v>-0.336635944700461</v>
+        <v>-0.354080353625518</v>
       </c>
       <c r="M25">
-        <v>-0.07214920353721301</v>
+        <v>-0.119782280898119</v>
       </c>
       <c r="N25">
-        <v>-4.58590737756528</v>
+        <v>-5.98393944042333</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1782982</v>
@@ -2323,19 +2329,19 @@
         <v>5493786</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,37 +2361,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.671857606758492</v>
+        <v>0.16114979793596</v>
       </c>
       <c r="G26">
-        <v>0.0081967213114754</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H26">
-        <v>0.557377049180328</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1.1</v>
+        <v>1.105</v>
       </c>
       <c r="K26">
-        <v>0.0059025533290239</v>
+        <v>-0.0161377025036818</v>
       </c>
       <c r="L26">
-        <v>-0.0174833680235554</v>
+        <v>-0.0596457373822262</v>
       </c>
       <c r="M26">
-        <v>0.0405434672102385</v>
+        <v>0.0124720306768189</v>
       </c>
       <c r="N26">
-        <v>0.536595757183993</v>
+        <v>-1.46042556594405</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q26">
         <v>1782982</v>
@@ -2394,19 +2400,19 @@
         <v>5493786</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,37 +2432,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.348189748116481</v>
+        <v>0.762772035500578</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.822485207100592</v>
+        <v>0.808139534883721</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.84</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="K27">
-        <v>-0.010002282062985</v>
+        <v>0.0100129909983632</v>
       </c>
       <c r="L27">
-        <v>-0.0381144195387168</v>
+        <v>-0.0180226971606247</v>
       </c>
       <c r="M27">
-        <v>0.0202668363756367</v>
+        <v>0.0318291773808538</v>
       </c>
       <c r="N27">
-        <v>-0.101649207957165</v>
+        <v>0.101448743651096</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1782982</v>
@@ -2465,19 +2471,19 @@
         <v>5493786</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.982939145832619</v>
+        <v>0.739741140490736</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.184971098265896</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2512,22 +2518,22 @@
         <v>0.016</v>
       </c>
       <c r="K28">
-        <v>-0.0001804372677672</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0003388218923933</v>
+        <v>-0.0001774121006153</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>-1.12773292354536</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1782982</v>
@@ -2536,19 +2542,19 @@
         <v>5493786</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,31 +2574,31 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.309020647976264</v>
+        <v>0.213572298251557</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.705202312138728</v>
+        <v>0.718390804597701</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>331</v>
+        <v>330.5</v>
       </c>
       <c r="K29">
-        <v>2.00686813186813</v>
+        <v>2.60821202966218</v>
       </c>
       <c r="L29">
-        <v>-3.89703008327114</v>
+        <v>-2.77994071725185</v>
       </c>
       <c r="M29">
-        <v>8.93689784959466</v>
+        <v>9.95116640131126</v>
       </c>
       <c r="N29">
-        <v>0.606304571561369</v>
+        <v>0.789171567220024</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
@@ -2607,19 +2613,19 @@
         <v>5493786</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,19 +2645,19 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.761401690005615</v>
+        <v>0.45818382468597</v>
       </c>
       <c r="G30">
-        <v>0.411042944785276</v>
+        <v>0.418181818181818</v>
       </c>
       <c r="H30">
-        <v>0.570552147239264</v>
+        <v>0.563636363636364</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.0120680775224722</v>
+        <v>0.0126283817737308</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2669,7 +2675,7 @@
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q30">
         <v>1782982</v>
@@ -2678,19 +2684,19 @@
         <v>5493786</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,31 +2713,31 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31">
-        <v>0.421577710339085</v>
+        <v>0.675300632880366</v>
       </c>
       <c r="G31">
-        <v>0.0975609756097561</v>
+        <v>0.0977011494252874</v>
       </c>
       <c r="H31">
-        <v>0.152439024390244</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0001667047010497</v>
+        <v>-0.0001999115465181</v>
       </c>
       <c r="M31">
-        <v>0.0001667047010497</v>
+        <v>7.58430149965488E-05</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2749,19 +2755,19 @@
         <v>5493786</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2778,40 +2784,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.295246082374088</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.8536585365853659</v>
+        <v>0.867816091954023</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.9275</v>
+        <v>0.902</v>
       </c>
       <c r="K32">
-        <v>0.0033341280534751</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-0.0084242202550189</v>
+        <v>-0.0103294703232753</v>
       </c>
       <c r="M32">
-        <v>0.0190523365086419</v>
+        <v>0.0105423370288174</v>
       </c>
       <c r="N32">
-        <v>0.359474722746651</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1782982</v>
@@ -2820,19 +2826,19 @@
         <v>5493786</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,19 +2852,19 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F33">
-        <v>0.411453852552807</v>
+        <v>0.770203081366115</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.463855421686747</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2867,22 +2873,22 @@
         <v>7.31</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.0026056755432845</v>
       </c>
       <c r="L33">
-        <v>-0.008372226021147299</v>
+        <v>-0.0036510492218528</v>
       </c>
       <c r="M33">
-        <v>0.0054155179617372</v>
+        <v>0.008842082938612701</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.035645356269283</v>
       </c>
       <c r="O33" t="s">
         <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1782982</v>
@@ -2891,16 +2897,16 @@
         <v>5493786</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,37 +2926,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.330733503398069</v>
+        <v>0.505973019792318</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.953757225433526</v>
+        <v>0.942528735632184</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.9399999999999999</v>
+        <v>0.9375</v>
       </c>
       <c r="K34">
-        <v>0.0032455570745044</v>
+        <v>-0.0002722360248447</v>
       </c>
       <c r="L34">
-        <v>-0.008172256831498</v>
+        <v>-0.0104878904283619</v>
       </c>
       <c r="M34">
-        <v>0.0165047795992356</v>
+        <v>0.0112535707602698</v>
       </c>
       <c r="N34">
-        <v>0.345272029202598</v>
+        <v>-0.0290385093167713</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q34">
         <v>1782982</v>
@@ -2959,19 +2965,19 @@
         <v>5493786</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,37 +2997,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.930659195757828</v>
+        <v>0.9160023036006411</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.716763005780347</v>
+        <v>0.701149425287356</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.121</v>
+        <v>1.115</v>
       </c>
       <c r="K35">
-        <v>-0.0128408203125</v>
+        <v>-0.0108904816513762</v>
       </c>
       <c r="L35">
-        <v>-0.0217972062685762</v>
+        <v>-0.0212970154851953</v>
       </c>
       <c r="M35">
-        <v>0.0007680994206207</v>
+        <v>0.0016807367392518</v>
       </c>
       <c r="N35">
-        <v>-1.14547906445138</v>
+        <v>-0.9767248117826151</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q35">
         <v>1782982</v>
@@ -3030,19 +3036,19 @@
         <v>5493786</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,37 +3068,37 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.99871769853618</v>
+        <v>0.959358826705507</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.346820809248555</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="K36">
-        <v>-0.0006668188041989</v>
+        <v>-0.0003744873547505</v>
       </c>
       <c r="L36">
-        <v>-0.0010079485456404</v>
+        <v>-0.000675470712479</v>
       </c>
       <c r="M36">
-        <v>-0.0003325551285251</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>-1.62638732731463</v>
+        <v>-0.936218386876283</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1782982</v>
@@ -3101,19 +3107,19 @@
         <v>5493786</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,37 +3139,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.995228111534557</v>
+        <v>0.993106334361776</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.871345029239766</v>
+        <v>0.883720930232558</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4.59</v>
+        <v>4.16</v>
       </c>
       <c r="K37">
-        <v>-0.107725375626043</v>
+        <v>-0.0908917050691244</v>
       </c>
       <c r="L37">
-        <v>-0.183014292374469</v>
+        <v>-0.154411474861729</v>
       </c>
       <c r="M37">
-        <v>-0.0410722089307373</v>
+        <v>-0.0304574450620965</v>
       </c>
       <c r="N37">
-        <v>-2.34695807464147</v>
+        <v>-2.18489675646934</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1782982</v>
@@ -3172,19 +3178,19 @@
         <v>5493786</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3192,10 +3198,10 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3204,37 +3210,37 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.110335680959923</v>
+        <v>0.98290817231449</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0205479452054795</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.513698630136986</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>0.263</v>
+        <v>1.02</v>
       </c>
       <c r="K38">
-        <v>-0.06870769692123151</v>
+        <v>0.028289586919105</v>
       </c>
       <c r="L38">
-        <v>-0.116697302980198</v>
+        <v>0.0041683529068965</v>
       </c>
       <c r="M38">
-        <v>0.0041703037026152</v>
+        <v>0.0503395345236039</v>
       </c>
       <c r="N38">
-        <v>-26.1245995898219</v>
+        <v>2.77348891363774</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1782982</v>
@@ -3243,16 +3249,19 @@
         <v>5493786</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3260,49 +3269,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.110335680959923</v>
+        <v>0.066610410257222</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.802083333333333</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>98</v>
+        <v>9.914999999999999</v>
       </c>
       <c r="K39">
-        <v>-5.66449675905743</v>
+        <v>-0.0257318982387475</v>
       </c>
       <c r="L39">
-        <v>-16.5589339210757</v>
+        <v>-0.0492552059288326</v>
       </c>
       <c r="M39">
-        <v>1.0319140906162</v>
+        <v>0.0014382084177696</v>
       </c>
       <c r="N39">
-        <v>-5.78009873373207</v>
+        <v>-0.259524944415003</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q39">
         <v>1782982</v>
@@ -3311,16 +3320,19 @@
         <v>5493786</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="W39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3328,49 +3340,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.40324797025367</v>
+        <v>0.99957419923197</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.167464114832536</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>5.02</v>
+        <v>0.016</v>
       </c>
       <c r="K40">
-        <v>-0.5578282483029851</v>
+        <v>-0.0002230874994753</v>
       </c>
       <c r="L40">
-        <v>-1.79171140082744</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="M40">
-        <v>0.163647529678681</v>
+        <v>-9.77485758986933E-05</v>
       </c>
       <c r="N40">
-        <v>-11.1121165000595</v>
+        <v>-1.39429687172122</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q40">
         <v>1782982</v>
@@ -3379,16 +3391,19 @@
         <v>5493786</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="W40" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3396,49 +3411,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.105248850027669</v>
+        <v>0.66422757125681</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0047846889952153</v>
       </c>
       <c r="H41">
+        <v>0.732057416267943</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
-        <v>0.363</v>
+        <v>340</v>
       </c>
       <c r="K41">
-        <v>-0.0155713623725672</v>
+        <v>-1.17131844110422</v>
       </c>
       <c r="L41">
-        <v>-0.0425916756731881</v>
+        <v>-5.67641635430243</v>
       </c>
       <c r="M41">
-        <v>0.0017635427212339</v>
+        <v>3.59159333731082</v>
       </c>
       <c r="N41">
-        <v>-4.28963150759427</v>
+        <v>-0.344505423854182</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q41">
         <v>1782982</v>
@@ -3447,16 +3462,19 @@
         <v>5493786</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3464,49 +3482,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.20948086257967</v>
+        <v>0.516346391591566</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.413265306122449</v>
       </c>
       <c r="H42">
-        <v>0.9</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>101.705</v>
+        <v>0.0127809035117604</v>
       </c>
       <c r="K42">
-        <v>-2.22260645604396</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-2.94108718459235</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0.774471366435869</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>-2.18534630160165</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q42">
         <v>1782982</v>
@@ -3515,16 +3533,19 @@
         <v>5493786</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3532,67 +3553,830 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <v>0.79068347446833</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.8534031413612569</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.923</v>
+      </c>
+      <c r="K43">
+        <v>-0.0050011410314924</v>
+      </c>
+      <c r="L43">
+        <v>-0.0133071831459985</v>
+      </c>
+      <c r="M43">
+        <v>0.00429035993727</v>
+      </c>
+      <c r="N43">
+        <v>-0.541835431364298</v>
+      </c>
+      <c r="O43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43">
+        <v>1782982</v>
+      </c>
+      <c r="R43">
+        <v>5493786</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>0.8223598627734759</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.421319796954315</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.3</v>
+      </c>
+      <c r="K44">
+        <v>0.0027588431811491</v>
+      </c>
+      <c r="L44">
+        <v>-0.0023724578605822</v>
+      </c>
+      <c r="M44">
+        <v>0.0082170978627673</v>
+      </c>
+      <c r="N44">
+        <v>0.0377923723445085</v>
+      </c>
+      <c r="O44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44">
+        <v>1782982</v>
+      </c>
+      <c r="R44">
+        <v>5493786</v>
+      </c>
+      <c r="S44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>0.969851483352255</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.947368421052632</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.951</v>
+      </c>
+      <c r="K45">
+        <v>-0.008256389137876401</v>
+      </c>
+      <c r="L45">
+        <v>-0.0155699605595995</v>
+      </c>
+      <c r="M45">
+        <v>-0.0010447500165701</v>
+      </c>
+      <c r="N45">
+        <v>-0.868179720071127</v>
+      </c>
+      <c r="O45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q45">
+        <v>1782982</v>
+      </c>
+      <c r="R45">
+        <v>5493786</v>
+      </c>
+      <c r="S45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>0.998451645647958</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.669856459330144</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.14</v>
+      </c>
+      <c r="K46">
+        <v>-0.0175551510626361</v>
+      </c>
+      <c r="L46">
+        <v>-0.024714110529396</v>
+      </c>
+      <c r="M46">
+        <v>-0.0072467469086298</v>
+      </c>
+      <c r="N46">
+        <v>-1.53992553181019</v>
+      </c>
+      <c r="O46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46">
+        <v>1782982</v>
+      </c>
+      <c r="R46">
+        <v>5493786</v>
+      </c>
+      <c r="S46" t="s">
+        <v>57</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>0.998482704811768</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.315789473684211</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.041</v>
+      </c>
+      <c r="K47">
+        <v>-0.0005001141031492</v>
+      </c>
+      <c r="L47">
+        <v>-0.0007042912320868999</v>
+      </c>
+      <c r="M47">
+        <v>-0.0002144744568408</v>
+      </c>
+      <c r="N47">
+        <v>-1.21979049548597</v>
+      </c>
+      <c r="O47" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47">
+        <v>1782982</v>
+      </c>
+      <c r="R47">
+        <v>5493786</v>
+      </c>
+      <c r="S47" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>0.998950015202585</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.859903381642512</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4.36</v>
+      </c>
+      <c r="K48">
+        <v>-0.0857653491101676</v>
+      </c>
+      <c r="L48">
+        <v>-0.145000539853018</v>
+      </c>
+      <c r="M48">
+        <v>-0.0430794411904346</v>
+      </c>
+      <c r="N48">
+        <v>-1.96709516307724</v>
+      </c>
+      <c r="O48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q48">
+        <v>1782982</v>
+      </c>
+      <c r="R48">
+        <v>5493786</v>
+      </c>
+      <c r="S48" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.273</v>
+      </c>
+      <c r="K49">
+        <v>-0.06870769692123151</v>
+      </c>
+      <c r="L49">
+        <v>-0.116697302980198</v>
+      </c>
+      <c r="M49">
+        <v>-0.0053618061006185</v>
+      </c>
+      <c r="N49">
+        <v>-25.1676545499016</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49">
+        <v>1782982</v>
+      </c>
+      <c r="R49">
+        <v>5493786</v>
+      </c>
+      <c r="S49" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>106.9</v>
+      </c>
+      <c r="K50">
+        <v>-5.05960126525411</v>
+      </c>
+      <c r="L50">
+        <v>-16.5589339210757</v>
+      </c>
+      <c r="M50">
+        <v>3.21281661779505</v>
+      </c>
+      <c r="N50">
+        <v>-4.73302269902162</v>
+      </c>
+      <c r="O50" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50">
+        <v>1782982</v>
+      </c>
+      <c r="R50">
+        <v>5493786</v>
+      </c>
+      <c r="S50" t="s">
+        <v>57</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="C43">
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>5.02</v>
+      </c>
+      <c r="K51">
+        <v>-0.555725939277006</v>
+      </c>
+      <c r="L51">
+        <v>-1.79171140082744</v>
+      </c>
+      <c r="M51">
+        <v>-0.174476491451913</v>
+      </c>
+      <c r="N51">
+        <v>-11.0702378342033</v>
+      </c>
+      <c r="O51" t="s">
+        <v>43</v>
+      </c>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51">
+        <v>1782982</v>
+      </c>
+      <c r="R51">
+        <v>5493786</v>
+      </c>
+      <c r="S51" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
         <v>10</v>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43">
-        <v>0.704247481502542</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>4.802</v>
-      </c>
-      <c r="K43">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.3065</v>
+      </c>
+      <c r="K52">
+        <v>-0.017532</v>
+      </c>
+      <c r="L52">
+        <v>-0.0409214615883172</v>
+      </c>
+      <c r="M52">
+        <v>0.0086511725173858</v>
+      </c>
+      <c r="N52">
+        <v>-5.72006525285481</v>
+      </c>
+      <c r="O52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52">
+        <v>1782982</v>
+      </c>
+      <c r="R52">
+        <v>5493786</v>
+      </c>
+      <c r="S52" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>0.464222020750296</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>101.705</v>
+      </c>
+      <c r="K53">
+        <v>-0.0809418282548459</v>
+      </c>
+      <c r="L53">
+        <v>-2.68392727660179</v>
+      </c>
+      <c r="M53">
+        <v>2.58365690779486</v>
+      </c>
+      <c r="N53">
+        <v>-0.0795849056141251</v>
+      </c>
+      <c r="O53" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53">
+        <v>1782982</v>
+      </c>
+      <c r="R53">
+        <v>5493786</v>
+      </c>
+      <c r="S53" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4.415</v>
+      </c>
+      <c r="K54">
         <v>0.0410393258426966</v>
       </c>
-      <c r="L43">
-        <v>-0.252619379226491</v>
-      </c>
-      <c r="M43">
-        <v>0.24352681882049</v>
-      </c>
-      <c r="N43">
-        <v>0.8546298592814791</v>
-      </c>
-      <c r="O43" t="s">
-        <v>43</v>
-      </c>
-      <c r="P43" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q43">
-        <v>1782982</v>
-      </c>
-      <c r="R43">
-        <v>5493786</v>
-      </c>
-      <c r="S43" t="s">
-        <v>55</v>
-      </c>
-      <c r="T43" t="s">
-        <v>56</v>
-      </c>
-      <c r="U43" t="s">
-        <v>57</v>
-      </c>
-      <c r="V43" t="s">
-        <v>58</v>
+      <c r="L54">
+        <v>-0.292130759390644</v>
+      </c>
+      <c r="M54">
+        <v>0.256550570460242</v>
+      </c>
+      <c r="N54">
+        <v>0.9295430541947129</v>
+      </c>
+      <c r="O54" t="s">
+        <v>43</v>
+      </c>
+      <c r="P54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <v>1782982</v>
+      </c>
+      <c r="R54">
+        <v>5493786</v>
+      </c>
+      <c r="S54" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
